--- a/data/trans_bre/VUL_ANS-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_ANS-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,57 +468,57 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -592,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>141,38%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>96,8%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>96,41%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>8.606119678558569</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>2.989836075330131</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>4.093075334995326</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.318073585015289</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.9967093350817819</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.988263476651439</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>4,28; 11,98</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 5,59</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 6,44</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>47,56; 310,96</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 273,05</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>16,53; 249,13</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>3.914150556958577</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.3471746856995732</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.9949529076581038</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.3869854886598523</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.01558550726868389</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.1500077618291404</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.14503116415999</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>5.950728393398711</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>6.819932805434744</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.350081487259931</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.29131116314217</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.493409540024242</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,97</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>177,12%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>67,59%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>76,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>4,19; 7,82</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 3,55</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 3,53</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>90,46; 295,79</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>19,16; 141,28</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>34,13; 135,57</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>6.671020630229341</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>2.445493468293535</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.551140047702175</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.861041447992044</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.8560383776871655</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.8024558535885404</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>4.585818189228305</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.9009928558889528</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.244413691391842</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.9397160692645427</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.2371570663207375</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.3124919459170282</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>8.828420414513522</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>4.082485247325194</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>3.814424110026798</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.164824282358808</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.891232452450974</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.433374865736848</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>14,95%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>96,71%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>52,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 3,33</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 2,62</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 2,67</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-36,11; 99,49</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-22,91; 349,61</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-13,11; 168,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>0.7544958546866702</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1.211789665490576</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.331714421390393</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.1404772552319234</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.014131147286529</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.5370929349028045</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-2.292732403443518</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-0.05495664404447227</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-0.3998592761513916</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3271280785878074</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.1400598637401036</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.1367656114947344</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>4.070074943085647</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>3.032517874477306</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>2.791404417187228</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.139218925142401</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>5.184191229296552</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.566289880429681</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,37</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>131,67%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>76,77%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>75,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,86; 6,77</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 2,92</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 3,24</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>77,76; 195,97</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>32,46; 133,83</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>42,66; 125,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>5.799783810346109</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>2.197026192818138</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>2.440586315694741</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.32124220287042</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.9070896097356992</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.7832360875205596</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>4.193760531123074</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1.135766668146699</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1.444521843564082</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.7925758350332835</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.3944108817881482</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.392356275864534</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>7.427261609059506</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>3.32891140212945</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>3.45063128847386</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.064712827239485</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.717960435629463</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.248202604549608</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -921,12 +865,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
